--- a/medicine/Enfance/Mikaël_Ollivier/Mikaël_Ollivier.xlsx
+++ b/medicine/Enfance/Mikaël_Ollivier/Mikaël_Ollivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mika%C3%ABl_Ollivier</t>
+          <t>Mikaël_Ollivier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikaël Ollivier est un auteur de romans et de nouvelles et scénariste français né le 22 mars 1968 à Versailles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mika%C3%ABl_Ollivier</t>
+          <t>Mikaël_Ollivier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est d'abord le cinéma qui le passionne : en 1982, une rétrospective Alfred Hitchcock est pour lui un choc. Après le baccalauréat, il entre dans une école de cinéma et commencera à travailler pour Canal Plus. Mikaël Ollivier publie des romans de science-fiction, des policiers, des récits intimistes, tant pour adultes que pour la jeunesse. Mikael est également scénariste pour le cinéma, la bande-dessinée et la télévision.
-En 2023, il publie aux éditions Thierry Magnier le roman pour adolescents Premier rôle. Pour l'avis critique de Télérama : « Dans ce très beau texte pour adolescents, Mikaël Ollivier ose aborder frontalement (et même politiquement) la vieillesse et la mort avec pudeur et justesse[1]. »
+En 2023, il publie aux éditions Thierry Magnier le roman pour adolescents Premier rôle. Pour l'avis critique de Télérama : « Dans ce très beau texte pour adolescents, Mikaël Ollivier ose aborder frontalement (et même politiquement) la vieillesse et la mort avec pudeur et justesse. »
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mika%C3%ABl_Ollivier</t>
+          <t>Mikaël_Ollivier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages pour enfants et adolescents
-Mikaël Ollivier, Papa est à la maison, Éditions Thierry Magnier, 2000.
+          <t>Ouvrages pour enfants et adolescents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mikaël Ollivier, Papa est à la maison, Éditions Thierry Magnier, 2000.
 Mikaël Ollivier, La Vie, en gros, Thierry Magnier, coll. « roman », 200119 prix littéraires, dont celui des Incorruptibles. Porté à l'écran.
 Mikaël Ollivier, Tu sais quoi ?, Thierry Magnier, coll. « roman », 2002.
 Mikaël Ollivier, Star-crossed lovers, Thierry Magnier, coll. « roman », 20024 prix littéraires.
@@ -570,9 +589,47 @@
 Mikaël Ollivier, Tu ne sais rien de l'amour, Thierry Magnier, coll. « grand romans », 2016.
 Mikaël Ollivier, 'Et si la mer était bleue ?, Thierry Magnier, coll. « Petite Poche », 2017.
 Mikaël Ollivier, Hantée, éditions Jungle, 2021, bande-dessinée en collaboration avec Nicolas Pitz.
-Mikaël Ollivier, Premier rôle[1], Thierry Magnier, coll. « grands romans », 2023
-Participation
-Une nouvelle publiée dans le recueil Des filles et des garçons, éditions Thierry Magnier, 2003 : recueil de 11 nouvelles, par 11 auteurs.
+Mikaël Ollivier, Premier rôle, Thierry Magnier, coll. « grands romans », 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mikaël_Ollivier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mika%C3%ABl_Ollivier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages pour enfants et adolescents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Participation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une nouvelle publiée dans le recueil Des filles et des garçons, éditions Thierry Magnier, 2003 : recueil de 11 nouvelles, par 11 auteurs.
 Côté dames, nouvelle publiée dans le recueil De l'eau de-ci de-là, Gallimard jeunesse (collection Scripto), 2005.
 Longue vie à Monsieur Moustache, nouvelle publiée dans le recueil Nouvelles vertes, éd. Thierry Magnier, 2005.
 Une nouvelle publiée dans le recueil Va y avoir du sport !, Gallimard jeunesse (collection Scripto), 2006 : recueil de 30 nouvelles, par 30 auteurs.
@@ -580,9 +637,43 @@
 Les mots de autres et Déjà morte, nouvelles publiées dans le recueil Les mots des autres, éd. Colibri, 2011 : recueil de 11 nouvelles, par 6 auteurs.
 Une nouvelle publiée dans le recueil Comme chien et chat éd. Thierry Magnier, 2011 : recueil de 9 nouvelles, par 9 auteurs.
 Une nouvelle publiée dans le recueil Sauve qui peut les vacances !, éd. Thierry Magnier, 2013 : recueil de 9 nouvelles, par 9 auteurs.
-« Mort de rire ! », dans Tu vas rire !, Thierry Magnier, 2016En partenariat avec "Le rire médecin".
-Ouvrages pour adultes
-Mikaël Ollivier (en collaboration avec Raymond Clarinard), L'Ombre de mars, éd. Fleuve noir, 1997.
+« Mort de rire ! », dans Tu vas rire !, Thierry Magnier, 2016En partenariat avec "Le rire médecin".</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mikaël_Ollivier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mika%C3%ABl_Ollivier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mikaël Ollivier (en collaboration avec Raymond Clarinard), L'Ombre de mars, éd. Fleuve noir, 1997.
 Mikaël Ollivier (en collaboration avec Hugues Barrière), Bruce Springsteen (biographie), éd. Librio, 2001.
 Mikaël Ollivier, Trois souris aveugles, éditions Albin Michel, coll. « Spécial suspense », 2002.
 Mikaël Ollivier, La Fièvre bâtisseuse, Thierry Magnier, 2003Il s'agit du premier roman écrit par l'auteur, mais longtemps refusé par les maisons d'édition.
@@ -597,36 +688,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mika%C3%ABl_Ollivier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mikaël_Ollivier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mika%C3%ABl_Ollivier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cinéma (en tant que scénariste)
-Three Blind Mice (trois souris aveugles), réalisé par Mathias Ledoux (adapté par l'auteur de son roman éponyme)
-Télévision (en tant que scénariste)
-La vie, en gros, téléfilm réalisé par Didier Bivel, 2001 (adaptation, par l'auteur, de son roman éponyme)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinéma (en tant que scénariste)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Three Blind Mice (trois souris aveugles), réalisé par Mathias Ledoux (adapté par l'auteur de son roman éponyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mikaël_Ollivier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mika%C3%ABl_Ollivier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision (en tant que scénariste)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La vie, en gros, téléfilm réalisé par Didier Bivel, 2001 (adaptation, par l'auteur, de son roman éponyme)
 Maldonne, téléfilm réalisé par Patrice Martineau, 2005
 Mémoire de glace, téléfilm réalisé par Pierre-Antoine Hiroz, 2006
 Frères de sang, téléfilm réalisé par Stéphane Kappès, 2008 (adaptation, par l'auteur, de son roman éponyme)
@@ -647,31 +777,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mika%C3%ABl_Ollivier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mikaël_Ollivier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mika%C3%ABl_Ollivier</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2001 : Grand Prix de l'Estérel pour Papa est à la maison (Thierry Magnier).
 2002/2003 :
@@ -690,7 +822,7 @@
 2008/2009 : Prix des lycéens autrichiens et Prix France Télévision pour Tout doit disparaître (éditions Thierry Magnier).
 2009 : Prix des lycées professionnels du Haut-Rhin pour L'Alibi (Thierry Magnier).
 2010 : Prix des lecteurs du Festival Sang d'Encre pour La promesse du feu (éditions Albin Michel).
-2012 : Meilleur scénario pour Paradis amers au Festival de la fiction TV de La Rochelle, d'après son roman Tout doit disparaître (éditions Thierry Magnier)[2].
+2012 : Meilleur scénario pour Paradis amers au Festival de la fiction TV de La Rochelle, d'après son roman Tout doit disparaître (éditions Thierry Magnier).
 2012 : Prix des collégiens de l'Hérault pour Le monde dans la main (éditions Thierry Magnier).
 2016 : Prix spécial du jury du festival de la fiction TV de la Rochelle, pour Box 27, écrit en collaboration avec Viviane Moore (Adrénaline / France 2)</t>
         </is>
